--- a/data/ecology/Mel/124.xlsx
+++ b/data/ecology/Mel/124.xlsx
@@ -11352,10 +11352,25 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="dc8ea9bb-7be6-4347-bbbd-43ecd0226ab6">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="36965efa-5a39-45c9-9312-a4f852bee1e3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{482D6C04-874A-459F-AA83-1C8DBE25973B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0429C0A-8468-459D-9263-542A4F37EE3A}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65EB6AD2-F415-4EF8-A478-A0ECA2B54732}"/>
 </file>